--- a/aula-copiar-colar.xlsx
+++ b/aula-copiar-colar.xlsx
@@ -1,30 +1,42 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nelio\Google Drive\Cursos online\Curso_Excel\02 Primeiros passos sobre planilha eletrônica\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\wokspaces\start\ExcelAvançado\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BCB41BE-3ED5-4B58-BA01-3AEACCEBF57A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8130"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Vendas-Resultado Final" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="15">
   <si>
     <t>RELATÓRIO DE VENDAS</t>
   </si>
@@ -74,10 +86,10 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="165" formatCode="&quot;R$&quot;#,##0.00"/>
+    <numFmt numFmtId="44" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="&quot;R$&quot;#,##0.00"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -159,9 +171,9 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -184,10 +196,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -197,9 +208,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Moeda" xfId="1" builtinId="4"/>
+    <cellStyle name="Currency" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -511,18 +525,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:G28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="30.7109375" customWidth="1"/>
-    <col min="3" max="7" width="21.7109375" customWidth="1"/>
+    <col min="2" max="2" width="30.7265625" customWidth="1"/>
+    <col min="3" max="7" width="21.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:5" ht="19.5" x14ac:dyDescent="0.45">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -532,7 +548,7 @@
         <v>43101</v>
       </c>
     </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
@@ -546,7 +562,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B4" s="5" t="s">
         <v>4</v>
       </c>
@@ -561,7 +577,7 @@
         <v>18.442622950819672</v>
       </c>
     </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B5" s="7" t="s">
         <v>5</v>
       </c>
@@ -576,7 +592,7 @@
         <v>80.112068965517238</v>
       </c>
     </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B6" s="7" t="s">
         <v>6</v>
       </c>
@@ -591,7 +607,7 @@
         <v>21.988826815642458</v>
       </c>
     </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B7" s="7" t="s">
         <v>7</v>
       </c>
@@ -606,7 +622,7 @@
         <v>74.493827160493822</v>
       </c>
     </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B8" s="9" t="s">
         <v>8</v>
       </c>
@@ -621,7 +637,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="13" spans="2:5" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:5" ht="19.5" x14ac:dyDescent="0.45">
       <c r="B13" s="2" t="s">
         <v>10</v>
       </c>
@@ -631,7 +647,7 @@
         <v>43132</v>
       </c>
     </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B14" s="1" t="s">
         <v>1</v>
       </c>
@@ -645,37 +661,82 @@
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B15" s="13"/>
-      <c r="C15" s="13"/>
-      <c r="D15" s="13"/>
-      <c r="E15" s="13"/>
-    </row>
-    <row r="16" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B16" s="14"/>
-      <c r="C16" s="14"/>
-      <c r="D16" s="14"/>
-      <c r="E16" s="14"/>
-    </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B17" s="14"/>
-      <c r="C17" s="14"/>
-      <c r="D17" s="14"/>
-      <c r="E17" s="14"/>
-    </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B18" s="14"/>
-      <c r="C18" s="14"/>
-      <c r="D18" s="14"/>
-      <c r="E18" s="14"/>
-    </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B19" s="15"/>
-      <c r="C19" s="15"/>
-      <c r="D19" s="15"/>
-      <c r="E19" s="15"/>
-    </row>
-    <row r="24" spans="2:7" ht="19.5" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B15" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C15" s="13">
+        <v>183</v>
+      </c>
+      <c r="D15" s="22">
+        <v>3375</v>
+      </c>
+      <c r="E15" s="16">
+        <f>D15/C15</f>
+        <v>18.442622950819672</v>
+      </c>
+    </row>
+    <row r="16" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B16" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C16" s="14">
+        <v>116</v>
+      </c>
+      <c r="D16" s="23">
+        <v>9293</v>
+      </c>
+      <c r="E16" s="17">
+        <f t="shared" ref="E16:E19" si="1">D16/C16</f>
+        <v>80.112068965517238</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B17" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17" s="14">
+        <v>179</v>
+      </c>
+      <c r="D17" s="23">
+        <v>3936</v>
+      </c>
+      <c r="E17" s="17">
+        <f t="shared" si="1"/>
+        <v>21.988826815642458</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B18" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18" s="14">
+        <v>81</v>
+      </c>
+      <c r="D18" s="23">
+        <v>6034</v>
+      </c>
+      <c r="E18" s="17">
+        <f t="shared" si="1"/>
+        <v>74.493827160493822</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B19" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C19" s="15">
+        <v>77</v>
+      </c>
+      <c r="D19" s="24">
+        <v>5159</v>
+      </c>
+      <c r="E19" s="18">
+        <f t="shared" si="1"/>
+        <v>67</v>
+      </c>
+    </row>
+    <row r="24" spans="2:7" ht="19.5" x14ac:dyDescent="0.45">
       <c r="B24" s="2" t="s">
         <v>11</v>
       </c>
@@ -687,43 +748,88 @@
         <v>43132</v>
       </c>
     </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B25" s="1"/>
-      <c r="C25" s="20"/>
-      <c r="D25" s="21"/>
-      <c r="E25" s="21"/>
-      <c r="F25" s="21"/>
-      <c r="G25" s="22"/>
-    </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C25" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="D25" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="E25" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="F25" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="G25" s="21" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B26" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C26" s="13"/>
-      <c r="D26" s="13"/>
-      <c r="E26" s="13"/>
-      <c r="F26" s="13"/>
-      <c r="G26" s="13"/>
-    </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C26" s="13">
+        <v>183</v>
+      </c>
+      <c r="D26" s="13">
+        <v>116</v>
+      </c>
+      <c r="E26" s="13">
+        <v>179</v>
+      </c>
+      <c r="F26" s="13">
+        <v>81</v>
+      </c>
+      <c r="G26" s="13">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="27" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B27" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C27" s="19"/>
-      <c r="D27" s="19"/>
-      <c r="E27" s="19"/>
-      <c r="F27" s="19"/>
-      <c r="G27" s="19"/>
-    </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C27" s="23">
+        <v>3375</v>
+      </c>
+      <c r="D27" s="23">
+        <v>9293</v>
+      </c>
+      <c r="E27" s="23">
+        <v>3936</v>
+      </c>
+      <c r="F27" s="23">
+        <v>6034</v>
+      </c>
+      <c r="G27" s="23">
+        <v>5159</v>
+      </c>
+    </row>
+    <row r="28" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B28" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="C28" s="15"/>
-      <c r="D28" s="15"/>
-      <c r="E28" s="15"/>
-      <c r="F28" s="15"/>
-      <c r="G28" s="15"/>
+      <c r="C28" s="18">
+        <f>C27/C26</f>
+        <v>18.442622950819672</v>
+      </c>
+      <c r="D28" s="18">
+        <f>D27/D26</f>
+        <v>80.112068965517238</v>
+      </c>
+      <c r="E28" s="18">
+        <f>E27/E26</f>
+        <v>21.988826815642458</v>
+      </c>
+      <c r="F28" s="18">
+        <f>F27/F26</f>
+        <v>74.493827160493822</v>
+      </c>
+      <c r="G28" s="18">
+        <f>G27/G26</f>
+        <v>67</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
